--- a/Fake_Portfolio.xlsx
+++ b/Fake_Portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1nbvw\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879213C4-E202-4BC8-98D7-09BC4068D9F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B12FB76-3EF2-4129-ACAB-A372F0904856}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15435" xr2:uid="{7105A7B6-F41C-41D7-BAEA-EB79DAB8E461}"/>
+    <workbookView xWindow="15870" yWindow="3315" windowWidth="19005" windowHeight="16935" xr2:uid="{7105A7B6-F41C-41D7-BAEA-EB79DAB8E461}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Insured_Names</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>willkürlicher Firmename</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>anderer willkuerlicher Firmename</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>CuteKittens KGaA</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Sauron</t>
+  </si>
+  <si>
+    <t>Mordor</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -411,80 +441,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDE831A-2852-4E4E-8F05-D6A5FE1827AF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
